--- a/ptf.xlsx
+++ b/ptf.xlsx
@@ -24687,7 +24687,7 @@
         <v>79014</v>
       </c>
       <c r="X77">
-        <v>319.2</v>
+        <v>0</v>
       </c>
       <c r="Y77">
         <v>299.8</v>
@@ -38503,7 +38503,7 @@
         <v>78984</v>
       </c>
       <c r="X121">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y121">
         <v>189.2</v>
